--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_00-07_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_00-07_beg.xlsx
@@ -660,7 +660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Dobermann"]  Those who would trample enemies and comrades alive... or rather, "minions."
+    <t xml:space="preserve">[name="Dobermann"]  Those who would trample enemies and comrades alive... or rather, 'minions.'
 </t>
   </si>
   <si>
@@ -680,7 +680,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ace"]   "If facing a pawn, capture it; If facing a fortress, topple it; If facing the Crown, overthrow it."
+    <t xml:space="preserve">[name="Ace"]   'If facing a pawn, capture it; If facing a fortress, topple it; If facing the Crown, overthrow it.'
 </t>
   </si>
   <si>
